--- a/数据表/Model.xlsx
+++ b/数据表/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="const" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>//模型资源表</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>model/bu_xiaozu/bu_xiaozu.fbx</t>
+  </si>
+  <si>
+    <t>Death_1</t>
+  </si>
+  <si>
+    <t>model/bu_dunbing/bu_dunbing.fbx</t>
+  </si>
+  <si>
+    <t>model/bu_changfubing/bu_changfubing.fbx</t>
+  </si>
+  <si>
+    <t>model/gong_duangong/gong_duangong.fbx</t>
+  </si>
+  <si>
+    <t>model/gong_changgong/gong_changgong.fbx</t>
+  </si>
+  <si>
+    <t>model/gong_touqiang/gong_touqiang.fbx</t>
   </si>
 </sst>
 </file>
@@ -689,14 +710,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,21 +1065,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="8" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1130,8 +1149,125 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="2"/>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1001001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1001002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1001003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1001004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1001005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1001006</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
